--- a/2 четверть_6_Программист_Алгоритмы.xlsx
+++ b/2 четверть_6_Программист_Алгоритмы.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A5E0B-E2FB-4FE6-97F0-EA4215DA2274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADEBDA8-2B87-4599-9E49-8D6DE0A1AE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
+    <sheet name="Пирамидальная сортировка" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,16 +26,3318 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="178">
   <si>
     <t>Урок 1 часть 1</t>
+  </si>
+  <si>
+    <t>Урок 2 часть 1</t>
+  </si>
+  <si>
+    <t>Структуры данных. Массивы. Алгоритмы массивов</t>
+  </si>
+  <si>
+    <t>Структуры данных</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Структурами данных </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>называют некоторый контейнер с данными, обладающий специфическим внутренним устройством (макетом) и логикой хранения Различные макеты могут быть эффективны для некоторых операций и неэффективны для
+других</t>
+    </r>
+  </si>
+  <si>
+    <t>Массив</t>
+  </si>
+  <si>
+    <t>Доступ к элементам по индексу O(1)</t>
+  </si>
+  <si>
+    <t>Основные операции с массивом</t>
+  </si>
+  <si>
+    <t>1 Простые алгоритмы сортировки
+2 Алгоритмы поиска
+3 Продвинутые алгоритмы сортировки</t>
+  </si>
+  <si>
+    <t>Простые алгоритмы сортировки</t>
+  </si>
+  <si>
+    <t>Алгоритмы поиска</t>
+  </si>
+  <si>
+    <t>Продвинутые алгоритмы сортировки</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Бинарная куча</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O(n * log n)
+Если принять элемент с индексом i за родителя, то индексы его дочерних элементов будут 2 * I + 1 и 2 * i + 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Алгоритм просеивания</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O(n * log n)</t>
+    </r>
+  </si>
+  <si>
+    <t>Массивы в различных ЯП отличаются</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JAVA Когда создается ArrayList без указанного размера, то его размер по умолчанию равен 10 (0 - 9), далее при превышении указаного размера, его размер автоматически увеличивается на 50%
+копирование всех элементов и сдвиг элементов осуществляет специальная внутренняя функция — System.arrayCopy()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JAVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Массив нерасширяемый. В момент создания массива всегда знаем, сколько элементов может содержать данный контейнер.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaScript.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Размер массива не устанавливается в начале. В последствии массив может увеличиваться.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Массив</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - это контейнер, хранящий данные идентифицируемые по индексу
+К любому элементу массива всегда можно обратиться по его индексу и
+достать или заменить его.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Особенностью массива</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> является то, что доступ к элементам по индексу
+осуществляется за константное время, т е имеет сложность O(1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Оперативная память.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Массив всегда точно знает, где в памяти хранится каждый их его индексов. А значит может легко вывести данные, хранящиеся по любому из своих индексов. Обычно индексы одного массива хранятся в одном едином блоке неразрывно друг от друга.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 05 00</t>
+  </si>
+  <si>
+    <t>00 05 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00 06 40 - пузырьковая сортировка
+</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void bubbleSort(int[] array) {
+        boolean finish = false;
+        Integer temp = null;
+        while (!finish) {
+            for (int i = 0; i &lt; array.length - 1; i++) {   //i &lt; array.length-1 нужен для того, чтобы не получить IndexOutOfBound Exception
+                if (array[i] &gt; array[i + 1]) {
+                    temp = array[i];                //обмен нашего тяжелого значения со следующим менее тяжелым соседом
+                    array[i] = array[i + 1];
+                    array[i + 1] = temp;
+                }
+                if (temp == null) { //если не было перестановок, то сортировка выполнена
+                    finish = true;
+                } else {
+                    temp = null;
+                }
+            }
+        }</t>
+  </si>
+  <si>
+    <t>do … while () - короче, тк нет необходимости добавлять триггер</t>
+  </si>
+  <si>
+    <t>while() - длиннее</t>
+  </si>
+  <si>
+    <t>00 16 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        boolean finish;
+        do {                                                //цикл сортировки
+            finish = true;
+            for (int i = 0; i &lt; array.length - 1; i++) {   //один проход по массиву
+                if (array[i] &gt; array[i + 1]) {              //i &lt; array.length-1 нужен для того, чтобы не получить IndexOutOfBound Exception
+                    int temp = array[i];                //обмен нашего тяжелого значения со следующим менее тяжелым соседом
+                    array[i] = array[i + 1];
+                    array[i + 1] = temp;
+                    finish = false;
+                }
+            }
+        } while (!finish);
+    }</t>
+  </si>
+  <si>
+    <t>public static void directSort(int[] array) {
+        for (int i = 0; i &lt; array.length - 1; i++) {        //цикл сортировки
+            int minPosition = i;
+            for (int j = i + 1; j &lt; array.length; j++) {    //один проход по массиву
+                if (array[j] &lt; array[minPosition]){
+                    minPosition = j;
+                }
+            }
+            if (i != minPosition){
+                int temp = array[i];                //за один проход массива может быть не более 1 обмена
+                array[i] = array[minPosition];
+                array[minPosition] = temp;
+            }
+        }
+    }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Таким образом: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">В каждом проходе по массиву мы всегда встретим самый минимальный элемент и запомним его, дойдя до конца массива.
+В такой сортировке мы всегда только один раз производим операцию обмена.
+В такой сортировке, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>так как легкие (минимальные) значения складируются в начале массива, то мы можем применить два цикла for, во втором мы можем применить j = i + 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Таким образом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В любом случае, при первом проходе</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> по массиву, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>мы так или иначе встретим самый "тяжелый" элемент</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, который </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>по итогу прохода встанет в самый конец массива</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. По ходу первого прохода мы будем оптимизировать массив, перестанавливая другие элементы.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В любом случае при каждом очередном проходе</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> мы будем встречать </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>второй и следующие самые тяжелые элементы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, которые </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>будут вставать в конец (на дно) массива.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Можно оптимизировать сортировку</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> не сравнивая элементы, стоящие в конце массива на отрезок равный количеству ранее осуществленных проходов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Количество необходимых проходов по массиву</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> зависит от расположения минимальных значений в хвосте массива, так как данные "легкие" элементы смогут передвигаться по массиву лишь на один шаг в рамках каждого прохода по массиву
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В такой сортировке применяем while + for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , так как складируем/сортируем массив с конца - куда вытсраиваются наши тяжелые элементы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Сортировка выбором  O(n^2)
+directSort
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Главный смысл кратко:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> выбираем самый минимальный элемент в каждом проходе и ставим его в начало массива</t>
+    </r>
+  </si>
+  <si>
+    <t>00 22 32</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 Сортировка выбором  O(n^2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Принцип:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> мы запоминаем первый элемент массива. Проходясь по массиву, мы сравниваем первый элемент массива с каждым очередным пока не найдем меньший, чем первый. Далее запоминаем новый меньший элемент (таким образом мы точно не пройдем мимо минимального элемента массива). Как только находим минимальный элемент массива, закончив проход массива до крайнего элемента (чтобы убедиться, что мы нашли действительно минимальный), мы меняем местами первый элемент массива с найденным минимальным. Далее проход массива повторяется, начиная со второго элемента.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Проход по массиву №1 Массив [начало] 9574321680 [конец]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9 запоминаем. - первый элемент массива
+9 сравниваем с 5. 5 меньше. 5 запоминаем, 9 забываем.
+5 сравниваем с 7. 5 меньше. идем дальше.
+5 сравниваем с 4. 4 меньше. 4 запоминаем, 5 забываем.
+...
+1 сравниваем с 0. 0 меньше. 0 запоминаем, 1 забываем. 
+конец массива.
+Меняем местами первый элемент массива - 9 и минимальный элемент - 0.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Проход по массиву №2 Массив [начало] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">574321689 [конец] - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>слева складируются значения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 запоминаем - новый первый (второй элемент массива)
+....</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 Пузырьковая сортировка  O(n^2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Принцип:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> наиболее "легкие" элементы в массиве должны "всплыть" к его началу. Проще всего представить в виде вериткального массива (вертикальной башни).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Проход по массиву №1 Массив [начало] 9574321680 [конец]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9 сравниваем со всеми элементами и перемещаем на "дно" массива
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Проход по массиву №2 Массив [начало] 574321680</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [конец] - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>справа складируются значения</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 сравниваем с 7. Оставляем на месте 5, то что больше берем в работу
+7 сравниваем с 4. Меняем местами. 4 всплывает, 7 тонет.
+7 сравниваем с 3,2,1,6. Меняем местами. 7 тонет.
+7 сравниваем с 8. Оставляем на месте 7, то что больше берем в работу
+8 сравниваем с 0. Меняем местами. 0 всплывает, 8 тонет.
+8 сравниваем с 9. Оставляем на месте 8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 Сортировка вставками  O(n^2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Принцип:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> мы берем первый элемент массива (0) и сравниваем с соседним (1). Если соседний окажется больше, то идем дальше - сравниваем со следующим (2). Если (2) оказался меньше, то меняем местами (0) и (2).
+Далее продолжаем сравнивать новое значение в (0) с последющим (3), так как нет смысла сравнивать со значениями в (1) и (2), потому что они в любом случае больше нашего нового (0)
+ Дойдя до конца массива, мы соверешенно точно найдем минимальный элемент, который у нас останется в начале массива.
+Далее переходим к следующему элементу под индексом (1) и тд
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Проход по массиву №1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Массив [начало] 9574321680 [конец]
+9 запоминаем. - первый элемент массива
+9 сравниваем с 5. 5 меньше. 5 ставим (0) элементом. 9 ставим (1).
+Массив [начало] 5974321680 [конец]
+5 сравниваем с 7. 5 меньше. идем дальше.
+5 сравниваем с 4. 4 меньше. 4 ставим (0) элементом. 5 ставим (3).
+Массив [начало] 4975321680 [конец]
+...
+Массив [начало] 3975421680 [конец]
+Массив [начало] 2975431680 [конец]
+Массив [начало] 1975432680 [конец]
+Массив [начало] 0975432681 [конец]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Проход по массиву №2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Массив [начало] </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">975432681 [конец] - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>слева складируются значения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 Сортировка вставками  O(n^2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Главный смысл кратко:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> держимся за первый элемент массива на каждом проходе массива. В каждом проходе обмениваем первый элемент с элементами, имеющими более низкое значение. После каждого обмена, продолжаем проход по массиву сравнивая первый элемент с индексом элемента, на котором остановились. На этом один проход будет завершен.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void insertSort(int[] array) {
+        for (int i = 0; i &lt; array.length - 1; i++) {
+            for (int j = i + 1; j &lt; array.length; j++) {
+                if (array[i] &gt; array[j]) {
+                    int temp = array[i];
+                    array[i] = array[j];
+                    array[j] = temp;
+                }
+            }
+        }
+    }</t>
+  </si>
+  <si>
+    <t>1 Простой перебор O(n)</t>
+  </si>
+  <si>
+    <t>00 28 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static int find (int[] array, int value){
+        for (int i = 0; i&lt;array.length; i++){
+            if (array[i] == value){
+                return i;
+            }
+        }
+        return -1;
+    }</t>
+  </si>
+  <si>
+    <t>2 Бинарный поиск</t>
+  </si>
+  <si>
+    <t>00 30 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static int binarySearch(int[] array, int value, int min, int max) {
+        int midPoint;
+        if (max &lt; min) return -1;
+        midPoint = (max - min) / 2 + min;
+        if (array[midPoint] &lt; value) {
+            midPoint = binarySearch(array, value, midPoint + 1, max);
+            return midPoint;
+        } else if (array[midPoint] &gt; value) {
+            midPoint = binarySearch(array, value, min, midPoint - 1);
+            return midPoint;
+        } else {
+            return midPoint;
+        }
+    }</t>
+  </si>
+  <si>
+    <t>def binary_search(list, item):
+    low = 0
+    high = len(list)
+    while low &lt;= high:
+        mid = (low+high)//2
+        guess = list[mid]
+        if guess == item:
+            return mid
+        if guess &gt; item:
+            high = mid - 1
+        else:
+            low = mid + 1
+    return None
+my_list = [1, 3, 5, 7, 9]
+print (binary_search(my_list, 9))</t>
+  </si>
+  <si>
+    <t>Урок 2 часть 2</t>
+  </si>
+  <si>
+    <t>Урок 2 часть 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> public static int</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> binarySearch(int[] array, int value)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{
+        return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binarySearch(array, value, 0, array.length - 1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+    }
+  public static int </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binarySearch(int[] array, int value, int min, int max)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {
+        int midPoint;
+        if (max &lt; min) return -1;
+        midPoint = (max + min) / 2;
+        if (array[midPoint] &lt; value) return binarySearch(array, value, midPoint + 1, max);
+        if (array[midPoint] &gt; value) return binarySearch(array, value, min, midPoint - 1);
+        return midPoint;
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>Рекурсия + перегрузка для Java</t>
+  </si>
+  <si>
+    <t>while Python</t>
+  </si>
+  <si>
+    <t>00 44 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Пирамидальная сортировка
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Быстрая сортировка
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Выбирается pivot - лучше выбирать середину массива.
+Далее элементы слева справа сраниваются с pivot (слева от начала до конца подмассива, справа от конца до начала подмассива). Большие слева должны уйти в правую часть. Меньшие справа должны уйти в левую часть. Если отсутствуют элементы для обмена, то обмен происходит с pivot.
+Далее такая же последовательность происходит на двух образованных массивах, а старый pivot не трогается</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Разделяй и властвуй</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (от анг. divide and conquer) О (n*log n) до  О (n^2) 
+парадигма разработки алгоритмов, заключающаяся в рекурсивном разбиении решаемой задачи на две или более подзадачи того же типа, но меньшего размера, и комбинировании их решений для получения ответа к исходной задаче; разбиения выполняются до тех пор, пока все подзадачи не окажутся элементарными.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пивот</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (от анг pivot поворот) Элемент, служащий точкой сравнения элементов и их "поворота" в случае необходимости
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Проход по массиву №1 Массив [начало] 9574(3)21680 [конец]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(3) - пивот
+9574 - для перехода в левую часть
+210 - для перехода в правую часть 
+9 - кандидат слева. 0 - кандидат справа. обмен!
+5 - кандидат слева. 8,6, нет. 1 кандидат справа. обмен!
+7 - кандидат слева. 2 кандидат справа. обмен! конец правого подмассива
+4 - кандидат слева. нет кандидатов справа. обмен с 3.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Проход по массиву №2 Массив [начало]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0(1)2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>475(6)89</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[конец]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+итд
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Быстрая сортировка не годится для проверки отсортированности массива
+О (n^2) возможен в случае, если</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 мы пытаемся отсортировать отсортированный массив
+2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(И)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> мы всегда выбираем пивот первый элемент массива
+в таком случае сложность будет квадратичной, тк нам придется проходить по внешнему массиву, который будет уменьшаться (разделясь на 1 элемент), а также проходить по массиву, сравнивая оставшиеся элементы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример случая О (n^2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+01234567
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0)1234567 - проход 1
+0(1)234567 - проход 2
+01(2)34567 - проход 3
+итд</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Пузырьковая сортировка  O(n^2)
+bubbleSort
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Главный смысл кратко:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> тяжелые элементы за каждый проход тонут сильнее</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Лучшая сортировка для перепроверки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> массива на отсортированность</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void quickSort(int[] array, int startPosition, int endPosition) {
+        int leftPosition = startPosition;
+        int rightPosition = endPosition;
+        int pivot = array[(startPosition + endPosition) / 2];
+        while (leftPosition &lt;= rightPosition) {
+            while (array[leftPosition] &lt; pivot) {
+                leftPosition++;
+            }
+            while (array[rightPosition] &gt; pivot) {
+                rightPosition--;
+            }
+            if (leftPosition &lt;= rightPosition) {
+                if (leftPosition &lt; rightPosition) {
+                    int temp = array[leftPosition];
+                    array[leftPosition] = array[rightPosition];
+                    array[rightPosition] = temp;
+                }
+                leftPosition++;
+                rightPosition--;
+            }
+        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (leftPosition &lt; endPosition) {
+            quickSort(array, leftPosition, endPosition); //сверху по коду мы шли слева направо до пивота. а теперь берем кусок массива, который остался справа для дальнейшей сортировки (от leftposition до endposition
+        }
+        if (rightPosition &gt; startPosition) {
+            quickSort(array, startPosition, rightPosition);
+        }
+    }</t>
+  </si>
+  <si>
+    <t>00 58 00</t>
+  </si>
+  <si>
+    <t>Логика пирамидальной сортировки</t>
+  </si>
+  <si>
+    <t>1 Перед началом отсеивания самого большого элемента (элемент с самым большим значением в массиве) происходит сортировка массива в структуру кучи.
+2 Структура правильной кучи соответствует правилу, что все родители должны быть по значениям больше, чем значения их детей (если сортировка от меньшего значения к наибольшему)</t>
+  </si>
+  <si>
+    <t>Поэтапная реализация пирамидальной сортировки</t>
+  </si>
+  <si>
+    <t>public static class HeapSort {
+        public static void sort(int[] array) {
+                // Построение кучи (перегруппируем массив)
+                for (int i = array.length / 2 - 1; i &gt;= 0; i--)
+                        heapify(array, array.length, i);
+                // Один за другим извлекаем элементы из кучи
+                for (int i = array.length - 1; i &gt;= 0; i--) {
+                        // Перемещаем текущий корень в конец
+                        int temp = array[0];
+                        array[0] = array[i];
+                        array[i] = temp;
+                        // Вызываем процедуру heapify на уменьшенной куче
+                        heapify(array, i, 0);
+                }
+        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        private static void heapify(int[] array, int heapSize, int rootIndex) {
+                int largest = rootIndex; // инициализируем наибольший элемент как корень
+                int leftChild = 2 * rootIndex + 1; // левый = 2*rootIndex + 1
+                int rightChild = 2 * rootIndex + 2; // правый = 2*rootIndex + 2
+                // Если левый дочерний элемент больше корня
+                if (leftChild &lt; heapSize &amp;&amp; array[leftChild] &gt; array[largest])
+                        largest = leftChild;
+                // Если правый дочерний элемент больше, чем самый большой элемент на данный момент
+                if (rightChild &lt; heapSize &amp;&amp; array[rightChild] &gt; array[largest])
+                        largest = rightChild;
+                // Если самый большой элемент не корень
+                if (largest != rootIndex) {
+                        int temp = array[rootIndex];
+                        array[rootIndex] = array[largest];
+                        array[largest] = temp;
+                        // Рекурсивно преобразуем в двоичную кучу затронутое поддерево
+                        heapify(array, heapSize, largest);
+                }
+        }
+}</t>
+  </si>
+  <si>
+    <t>2) heapify(array, array.length, i); //формируем структуру кучи, начиная с самого правого-нижнего корня. Если массив имеет длину 5 элементов, самым крайним корнем, с которого начнется формирование структуры кучи, будут элементы с индексами: 01234
+В соответствии с 
+int largest = rootIndex; // инициализируем наибольший элемент как корень
+                int leftChild = 2 * rootIndex + 1; // левый = 2*rootIndex + 1
+                int rightChild = 2 * rootIndex + 2; // правый = 2*rootIndex + 2</t>
+  </si>
+  <si>
+    <t>1) int i = array.length / 2 - 1 //по данному коду определяем индексы всех родителей в будущей куче. Если массив имеет длину 5 элементов, то родителями будут индексы 1 и 0 (родитель 1 будет иметь родителя 0).</t>
+  </si>
+  <si>
+    <t>См Powerpoint Пирамидальная сортировка.pptx</t>
+  </si>
+  <si>
+    <t>Урок 3 часть 1</t>
+  </si>
+  <si>
+    <t>Урок 3. Структуры данных. Связный список</t>
+  </si>
+  <si>
+    <t>Связный список</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Основные операции со связным списком</t>
+  </si>
+  <si>
+    <t>1 Поиск элемента
+2 Вставка элементов
+3 Удаление элементов
+4 Разворот</t>
+  </si>
+  <si>
+    <t>1 Поиск элемента</t>
+  </si>
+  <si>
+    <t>2 Вставка элементов</t>
+  </si>
+  <si>
+    <t>3 Удаление элементов</t>
+  </si>
+  <si>
+    <t>4 Разворот</t>
+  </si>
+  <si>
+    <t>O(n), т.к. поиск любой ноды требует перебора элементов. Использование бинарного поиска не дает выгоды, т.к. обращение по индексам с константной скоростью недоступно</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Базовая структура данных, состоящая из узлов, где каждый узел содержит одну или две ссылки, который ссылаются на следующий или на следующий и предыдущий узел соответственно
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Отсутствуют</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> индексы элементов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Присутствует</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> только связь между элементами</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Массовые вставки и удаления в конец начало списка
+2 Массовые вставки и удаления в середину списка, если операция поиска выполняется единожды
+3 Динамическая расширяемость</t>
+  </si>
+  <si>
+    <t>Преимущества связного списка</t>
+  </si>
+  <si>
+    <t>Стек</t>
+  </si>
+  <si>
+    <t>Очередь</t>
+  </si>
+  <si>
+    <t>Стек работает по принципу LIFO
+Last In First Out</t>
+  </si>
+  <si>
+    <t>Очередь работает по принципу FIFO
+First In First Out</t>
+  </si>
+  <si>
+    <t>public void addTail(int value) {
+        Node node = new Node();
+        node.value = value;
+        if (head == null) {
+            head = node;
+            tail = node;
+        } else {                    // head.prev -&gt; null,   head -&gt; 1,  head.next -&gt; 2,3 &lt;-tail.prev,   4 &lt;-tail,   null &lt;-tail.next
+            tail.next = node;       // head.prev -&gt; null,   head -&gt; 1,  head.next -&gt; 2,3 &lt;-tail.prev,   4 &lt;-tail,   6 &lt;-tail.next
+            node.previous = tail;   // head.prev -&gt; null,   head -&gt; 1,  head.next -&gt; 2,3 &lt;-tail.prev,   4 &lt;-tail,   tail&lt;-6 &lt;-tail.next
+            tail = node;            // head.prev -&gt; null,   head -&gt; 1,  head.next -&gt; 2,3,4 &lt;-tail.prev, 6 &lt;-tail,   null &lt;-tail.next
+        }
+    }</t>
+  </si>
+  <si>
+    <t>public void addHead(int value) {
+        Node node = new Node();
+        node.value = value;
+        if (head == null) {
+            head = node;
+            tail = node;
+        } else {
+            head.previous = node;
+            node.next = head;
+            head = node;
+        }
+    }</t>
+  </si>
+  <si>
+    <t>public void addMiddle(int value, Node node) {
+        Node newNode = new Node();      //Создаем новую Node
+        newNode.value = value;          //Присваиваем значение новой Node
+        newNode.previous = node;        //Присваиваем ссылку на prev новой Node
+        if (node.next == null) {
+            tail = newNode;             //Если после найденной Node стоит null, то перемещаем tail
+        } else {                        //Если после найденной Node есть элементы
+            newNode.next = node.next;   //Присваиваем ссылку на next новой Node
+            node.next.previous = newNode; //Переприсваиваем ссылку prev следующего Node
+            node.next = newNode;        //Переприсваиваем ссылку next найденного элемента
+        }
+    }</t>
+  </si>
+  <si>
+    <t>public void delete(Node node) {
+        Node previous = node.previous;  //Можно и без сохранения в отдельные переменные,
+        Node next = node.next;          //Однако так будет меньше лапше-кода
+        if (previous == null) {         //Если это крайний элемент с начала списка,
+            next.previous = null;       //то удаляем на него ссылку из соседнего (тк двусторонний список)
+            head = node.next;           //присваиваем head ссылку на соседний элемент
+        } else if (next == null) {
+            previous.next = null;
+            tail = node.previous;
+        } else {
+            previous.next = next;
+            next.previous = previous;
+        }
+    }</t>
+  </si>
+  <si>
+    <t>public void revert(){
+        Node currentNode = head;
+        while (currentNode != null){
+            Node next = currentNode.next;           //сохраняем в отдельные переменные значения, которые будем менять
+            Node previous = currentNode.previous;
+            currentNode.next = previous;
+            currentNode.previous=next;
+            if (previous == null){
+                tail = currentNode;
+            }
+            if (next == null){
+                head = currentNode;
+            }
+            currentNode = next;
+        }
+    }</t>
+  </si>
+  <si>
+    <t>public Node find(int value) {
+        Node currentNode = head;
+        while (currentNode != null) {
+            if (currentNode.value == value) {
+                return currentNode;
+            }
+            currentNode = currentNode.next;
+        }
+        return null;
+    }</t>
+  </si>
+  <si>
+    <t>public class LinkedL {
+    Node head;
+    Node tail;
+    public class Node {
+        int value;
+        Node next;
+        Node previous;
+    }
+}</t>
+  </si>
+  <si>
+    <t>Благодаря значениям в head и tail мы можем осуществлять проход по связному циклу. В head и tail хранятся ссылки на следующий и предыдущий элементы (head.next, head.prev; tail.next, tail.prev)</t>
+  </si>
+  <si>
+    <t>Односвязные списки используются в специфических ситуациях, когда работаем со стеком 00 31 35
+Двусвязные списки используются чаще 00 00 00</t>
+  </si>
+  <si>
+    <t>Односвязный список</t>
+  </si>
+  <si>
+    <t>Двусвязный список</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    public void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>revertOneLinked()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{
+        if (head != null &amp;&amp; head.next != null){
+            Node temp = head;
+            revertOneLinked(head.next,head);
+            temp.next = null;
+        }
+    }
+    private void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>revertOneLinked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Node currentNode, Node previousNode){
+        if (currentNode.next == null){      //доходим до конца односвязного списка и обозначаем head
+            head = currentNode;
+        } else {
+            revertOneLinked(currentNode.next, currentNode);
+        }
+        currentNode.next = previousNode;    //далее с конца односвязного списка назначаем новые next
+    }</t>
+    </r>
+  </si>
+  <si>
+    <t>public void push(int value){
+        Node node = new Node();
+        node.value = value;
+        node.next = head;
+        head = node;
+    }
+    public Integer pop(){
+        Integer result = null;
+        if (head != null){
+            result = head.value;
+            head = head.next;
+        }
+        return result;
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void pushQ(int value){
+        Node node = new Node();
+        node.value = value;
+        node.next = head;
+        head.previous = node;
+        head = node;
+    }
+    public Integer peekQ(){
+        Integer result = null;
+        if (tail != null){
+            result = tail.value;
+            tail.previous.next = null;
+            tail = tail.previous;
+        }
+        return result;
+    }</t>
+  </si>
+  <si>
+    <t>Двусвязный список (понятнее)</t>
+  </si>
+  <si>
+    <t>Урок 4 часть 1</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t>Это структура данных, представленная в виде набора связанных узлов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Обход в глубину</t>
+  </si>
+  <si>
+    <t>Обход в ширину</t>
+  </si>
+  <si>
+    <t>Бинарное дерево</t>
+  </si>
+  <si>
+    <t>Сбалансированное дерево</t>
+  </si>
+  <si>
+    <t>Поиск по сбалансированному дереву</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сбалансированное дерево дает нам идеальную структуру для бинарного поиска -
+1 корень такого дерева - это его центральный элемент 
+2 - количество элементов справа и слева от него различается не более чем на
+единицу, что характерно для выбора стартовой позиции в бинарном поиске. Таким образом, сложность поиска по сбалансированному дереву составляет </t>
+  </si>
+  <si>
+    <t>O(log n) - очень высокая производительность</t>
+  </si>
+  <si>
+    <t>Хеш таблица</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Структура данных, представляющая собой ассоциативный массив
+использующий хеш функцию для выполнения операций добавления,
+удаления и поиска элементов.
+В свою очередь </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ассоциативным массивом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> называют структуру данных,
+которая хранит пары ключ значение, где ключ каждой пары является
+уникальным в пределах всего массива данных</t>
+    </r>
+  </si>
+  <si>
+    <t>Важной особенностью хеш таблиц является, при некотором разумном допущении, получить сложность каждой из перечисленных операций равной O(1)</t>
+  </si>
+  <si>
+    <t>Урок 4 часть 2</t>
+  </si>
+  <si>
+    <t>Хэш-таблица</t>
+  </si>
+  <si>
+    <t>Массив объектов “ключ + значение”
+a: test
+b: test
+c: data
+d: info</t>
+  </si>
+  <si>
+    <t>Хеш функция</t>
+  </si>
+  <si>
+    <t>Хеш функцией называется специальный алгоритм, позволяющий преобразовать входные данные произвольного размера
+и состава в битовую строку фиксированной длины</t>
+  </si>
+  <si>
+    <t>Популярные хеш алгоритмы
+MD 5
+SHA 1
+SHA 256
+SHA 384
+SHA 512</t>
+  </si>
+  <si>
+    <t>Использование хэш функции для ключа как вычисление индекса элемента f(key) = i</t>
+  </si>
+  <si>
+    <t>Этапы проектирования 1</t>
+  </si>
+  <si>
+    <t>Этапы проектирования 2</t>
+  </si>
+  <si>
+    <t>Этапы проектирования 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минусы подхода:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 Адресное пространство в 8 байт это не только положительные значения - Integer включает в себя значения от -2 147 483 648 до 2 147 483 647 а обратиться к индексу с отрицательным номером
+невозможно
+2 Каждый раз выделять в адресном пространстве место под массив размером 2 147 483 647 очень расточительно с точки зрения эксплуатации Скорее всего у вас не будет элементов хотя бы на одну сотую часть этой размерности, а значит адреса в памяти будут заняты впустую
+3 Наличие коллизий не позволит однозначно занять 1 ячейку массива строго одним элементом На один и тот же индекс может претендовать несколько элементов, чей хеш код даст одно и тоже значение</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минусы подхода</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Сложность O(n) для поиска элемента по ключу</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в данном случае под коллизиями понимается один и тот же результат хэш функции при разных входных значениях (значения данных, записываемых в массив) - во время определения и назначения индекса записываемым данным</t>
+    </r>
+  </si>
+  <si>
+    <t>Этапы проектирования 4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Учитываем наличие коллизий. Храним в ячейке не один объект, а список объектов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Минусы подхода:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Перебор подсписка имеет сложность O(n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Плюсы подхода:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+При корректной хеш функции шанс коллизий минимален, а значит и размер списка будет не более нескольких значений и сложностью перебора можно пренебречь</t>
+    </r>
+  </si>
+  <si>
+    <t>Используем результат хеш функции по модулю, чтобы избежать отрицательных индексов</t>
+  </si>
+  <si>
+    <t>Этапы проектирования 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  public boolean exist (int value){
+        if (this.root == null){
+            return false;
+        }
+        Node node = find(this.root,value);
+        if (node != null){
+            return true;
+        }
+        return false;
+    }
+    private Node find(Node node, int value) {
+        if (node.value == value) {
+            return node;
+        } else {
+            for (Node child : node.children) {
+                Node result = find(child, value);
+                if (result != null) {   //кусок кода требуется для случая,
+                    return result;      //когда мы нашли искомое значение и хотим завершить все вызовы рекурсии
+                }
+            }
+        }
+        return null;
+    }</t>
+  </si>
+  <si>
+    <t>00 12 13</t>
+  </si>
+  <si>
+    <t>00 12 55</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Рекурсивный обход узлов дерева
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Обычно обход происходит вниз (только в специфичных ситуациях вверх), поэтому у class Node мы не храним ссылок на родителей - только на children
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Под обходом вглубино понимается обход всех элементов массива в порядке их очередности наследования в дереве. То есть мы сначала пройдем в узел со значением 3, затем в 1, затем в 4, затем в узел со значением 7, затем 6, затем 8
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Рекурсивным способом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Способом цикла
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Такой способ может быть неэффективным, если в нашем древе много вложенных деревьев (1000 поддеревьев). Таким образом мы можем пострадать из-за большого вызова стэка, хотя мы будем эффективно из него выходить благодаря 
+if (result != null) {  
+   return result; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Циклический обход узлов дерева
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Альтернатива обходу вглубину. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Предполагает, что обход будет осуществляться по горизонтали. То есть мы будем искать/проверять сначала root, затем всех его детей (в порядке очередности), затем всех детей ниже и тд
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Применение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Обход в ширину чаще всего может применяться для какого-либо анализа. Например необходимо отобразить все элементы одной иерархии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Например необходимо использовать функцию отрисовки, которая будет отрисовывать дерево, так как рисовать дерево по линиям проще
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Плюсы! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">обход по циклу 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Минусы! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>необходимо создавать объект в памяти, который будет хранить все ссылки в памяти на все текущие и будущие ноды (связи). Говоря абстрактно, обход в ширину несколько более трудозатратен, чем обход в глубину</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Node find(int value) {
+        List&lt;Node&gt; currentLine = new ArrayList&lt;&gt;();
+        currentLine.add(root);  //самая первая линия - линия root элемента
+        while (currentLine.size() &gt; 0) {
+            List&lt;Node&gt; nextLine = new ArrayList&lt;&gt;(); //создаем объект для добавления детей родителей
+            for (Node node : currentLine) {
+                if (node.value == value) {
+                    return node; //если нашли элемент, заканчиваем работу функции
+                }
+                nextLine.addAll(node.children);//если родитель не является искомым элементом,
+            }                                   //то сразу добавляем его детей в пул для прохода следующей линии
+            currentLine = nextLine;
+        }
+        return null;
+    }</t>
+  </si>
+  <si>
+    <t>00 17 24</t>
+  </si>
+  <si>
+    <t>00 19 29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно! Несбалансированное дерево</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, так как у числа 3 слева глубина 0, справа глубина 3. Таким образом при обхоже элементов такого дерева в глубину, мы можем столкнуться с проблемой различного количества операций при поиске различных значений в нем</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сбалансированным деревом называют частный случай бинарного дерева, 
+у которого выполняется следующее требование для любого узла дерева
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">высота его правого поддерева отличается от высоты левого поддерева не более чем на единицу
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Сбалансированное дерево - это такое дерево, у каждого родителя, которого может быть либо 0, либо 1 ребенок (не больше), а также у каждого/всех родителя имеется одинаковый уровень глубины детей</t>
+    </r>
+  </si>
+  <si>
+    <t>00 21 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Бинарным деревом называют частный случай дерева,
+1 где все элементы обязательно строго уникальны, 
+2 каждый родитель имеет не более 2 детей, 
+3 при этом левый ребенок всегда меньше родителя, а правый больше
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно! Бинарное дерево - это такая струкрутра данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, которая используется для ускорения доступа к данным (как массив, только здесь не перебируются все значения, а используется принцип бинарного поиска), обладает возможностью динамически расширяться (как LinkedList)</t>
+    </r>
+  </si>
+  <si>
+    <t>Красно-черное дерево</t>
+  </si>
+  <si>
+    <t>00 23 28</t>
+  </si>
+  <si>
+    <t>Левосторонний поворот (малый левый поворот)</t>
+  </si>
+  <si>
+    <t>00 24 00</t>
+  </si>
+  <si>
+    <t>Соблюдая эти условия, можно создать сбалансированнное красно-черное дерево
+1 Каждый узел может быть либо черным, либо красным и иметь двух потомков
+2 Корень всегда черный
+3 Дети красного узла обязательно черные
+4 Для частного случая - левостороннее красно-черное дерево - также применяется следующий критерий:
+Красный узел может быть только левым потомком</t>
+  </si>
+  <si>
+    <t>Правосторонний поворот (малый правый поворот)</t>
+  </si>
+  <si>
+    <t>Для проведения балансировки существует три вида операций</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Операция 1 - Левосторонний поворот</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Красный узел, являющийся левым ребенком, должен стать правым ребенком, при этом происходит обмен значений родителя и ребенка местами.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Описание:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в первую очередь мы рассматриваем красную ноду (X) и ее родителя (Y). 
+1.1 У красной ноды ребенок (lower than x) всегда меньше, поэтому он остается на этом же месте</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.2 У родителя правый элемент всегда осается правым, так как он всегда остается больше, чем родительский элемент
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Описание 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Во время левостороннего поворота мы меняем значения X и Y местами, при этом Нода, которая содержит значение (between x and y) меняет своего родителя
+X становится родителем (меняет цвет с красного), Y становится ребенком (становится красным) и правый ребенок X (between x and y) становится левым ребенком Y</t>
+    </r>
+  </si>
+  <si>
+    <t>Операция 2 - Правосторонний поворот</t>
+  </si>
+  <si>
+    <t>00 25 48</t>
+  </si>
+  <si>
+    <t>1 Правая красная нода переезжает на левую сторону относительно родителя. 
+2 У родительской ноды (X) левый ребенок остается ее левым ребенком.
+3 У дочерней красной ноды (Y), правый ребенок остается правым ребенком
+4 При этом левый ребенок красной ноды (Y) переезжает и становится правым  ребенком родительской ноды (X)
+5 Красная нода (Y) становится родителем ноды (X)</t>
+  </si>
+  <si>
+    <t>Смена цвета</t>
+  </si>
+  <si>
+    <t>Операция 3 - Смена цвета</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Когда у нас есть две красные ноды в качестве детей, нам необходимо поменять цвет - обе дочерние ноды становятся черными, а родитель становится красным.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ИТОГ! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Благодаря этим трем операциям мы можем балансировать дерево</t>
+    </r>
+  </si>
+  <si>
+    <t>public class Tree {
+    Node root; //базовое поле. Начало, с которого мы можем начать любой обход/обращение к дереву
+ public class Node {
+        int value;
+        List&lt;Node&gt; children; //список детей. древо чаще всего не реализуется для обхода вверх - только вниз; так как это не бинарное дерево, у каждого его родителя может быть более 2 детей - для этого мы используем массив (чтобы хранить информацию обо всех детях данного родителя)
+    }
+}</t>
+  </si>
+  <si>
+    <t>Красно-чёрное дерево — двоичное дерево поиска, в котором каждый узел имеет атрибут цвета. При этом:
+1 Узел может быть либо красным, либо чёрным и имеет двух потомков;
+2 Корень — как правило чёрный. Это правило слабо влияет на работоспособность модели, так как цвет корня всегда можно изменить с красного на чёрный;
+3 Все листья, не содержащие данных — чёрные.
+4 Оба потомка каждого красного узла — чёрные.
+5 Любой простой путь от узла-предка до листового узла-потомка содержит одинаковое число чёрных узлов.</t>
+  </si>
+  <si>
+    <t>00 42 10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: то есть остаток от деления позволяет творить чудеса, то есть: 
+Откусывание чисел
+1) 121 % 10 = 1
+121%100 = 21
+Группирование числовых значений 
+2) 1 % 3 = 1
+2 % 3 = 2
+3 % 3 = 0
+4 % 3 = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5 % 3 = 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Хэш функция может вернуть в том числе </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>и отрицательноые значения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а также </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>значения соответствующие нескольким разным входным данным</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (так как gethash в java возвращает хэш в типе int)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! Возвращение элемента по ключу </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Когда пользователь обращается к Hashmap с целью вывести значение элемента по ключу, то происходит следующее. HashMap берет указаный ключ, проводит через хэш-функцию, далее полученный результат (может дополнительно результат разделить по модулю - делается для опитмизации количества бакетов) использует в качестве индекса, чтобы найти нужный бакет. Далее в бакете (если в нем хранится более 1 элемента) он ищет значение ключа равное, заданному пользователем. После нахождения такого ключа, возвращает значение, хранимое под этим ключом.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Уменьшаем количество бакетов и используем остаток от деления на их количество для определения индекса.
+Так при 4 бакетах и результате хеш функции 9, объект будет добавлен в ячейку с индексом (9%4=1) 1
+Чтобы сохранять сложность поиска O(1), с ростом объема данных в
+хеш табилце необходимо корректировать количество бакетов и
+проводить перераспределение данных между ними.
+Благодаря этому, каждый бакет будет содержать не более
+нескольких значений, что позволит пренебречь O(n) сложностью
+поиска по списку и сохранить O(1) сложность поиска по индексу
+массива для данных любого объема. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> после 8 ого элемента в Linkedlist  хэшмэпа, хэшмэп преобразует Linkedlist в красно-черное дерево</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> то есть каждый раз когда мы добавляем или удаляем элемент в хэш таблице, то вся таблица перестраивается с целью оптимального поиска и обращения к ее элементам. Таким образом каждое изменение хэш таблице переставляет хранимые в ней данные и строит новые связи между данными и бакетами (индексами). По итогу мы получаем такую структуру, где под каждым хэш хранится набор данных в структуре бинарного дерева. Глубина таких деревьев в хэш таблице опитмально должна стремиться к 1. В Java есть специальное знаение 0.75 * количество бакетов vs количество элементов в самом длинном LinkedList проверки, при превышении которого количество бакетов (хэшей под ключи) увеличивается в двое, а данные перераспределяются между новыми бакетами. Таким образом также достигается оптимизация за счет отсуствия необходимость вычислять остаток от деления хэша на более жесткое зачения количества бакетов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно! Если один раз создали New Node(), то все остальные присваивания head, tail итд - это лишь ссылки на этот new Node(). То есть Node - mutable класс</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+public void revert(){
+        head = tail; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//здесь мы не заполняем новым объектом head, а всего лишь присваиваем ссылку к объекту new Node(), который был когда-то добавлен в связный список</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        Node node = tail;
+        Node next;
+        Node previous;
+        while(node != null){
+            next = node.previous;
+            previous = node.next;
+            node.next = next;
+            node.previous = previous;
+            if (next == null){
+                tail = node;
+            }
+            node = next;
+        }
+    }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void revert(){
+        Node next;
+        Node previous;
+        Node node = tail;
+        while(node != null){
+            next = node.previous;
+            previous = node.next;
+            node.next = next;
+            node.previous = previous;
+            if(previous == null){
+                head = node;
+            }
+            if (next == null){
+                tail = node;
+            }
+            node = next;
+        }
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Иммутабельный (неизменяемый, immutable) класс</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — это класс, который после инициализации не может изменить свое состояние. То есть если в коде есть ссылка на экземпляр иммутабельного класса, то любые изменения в нем приводят к созданию нового экземпляра.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В Java (в отличии от других языков программирования), дополнение hashmap элементом с ключем null не вызовет ошибки - операция добавления такого элемента с null ключем пройдет успешно</t>
+    </r>
+  </si>
+  <si>
+    <t>Код Hashmap смотри в https://github.com/AlexServGE/Algorithms_Programmer_2_Quarter  - Algorithms_Lesson_4/src</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Код </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BlackTree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>смотри в https://github.com/AlexServGE/Algorithms_Programmer_2_Quarter  - Algorithms_Lesson_4/src</t>
+    </r>
+  </si>
+  <si>
+    <t>Структура данных - сбалансированное бинарное дерево - Красно-черное дерево</t>
+  </si>
+  <si>
+    <t>Урок 4 часть 3</t>
+  </si>
+  <si>
+    <t>Структура данных - несбалансированное дерево</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Код </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Обход Tree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> смотри в https://github.com/AlexServGE/Algorithms_Programmer_2_Quarter  - Algorithms_Lesson_4/src</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,13 +3362,141 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,8 +3515,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -93,11 +3536,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -108,20 +3755,236 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -139,6 +4002,1512 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>543460</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>154802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2671255</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1200728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB8FF70-909D-4D3D-843A-55F3566689B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3060369" y="41487529"/>
+          <a:ext cx="2127795" cy="1045926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>292759</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>444350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3046139</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1133814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41414F79-18C5-3874-4798-64CC61151A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809668" y="43254895"/>
+          <a:ext cx="2753380" cy="689464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>50770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3130176</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1212254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D330DF8-42F9-567A-EFF6-BF12460627CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2607233" y="63401358"/>
+          <a:ext cx="3040531" cy="1161484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>75213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2331358</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>1203855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414C4931-E53B-7E62-AECA-05299E067A3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105072" y="68500999"/>
+          <a:ext cx="2267857" cy="1128642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>49433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2143859</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1137711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C193AE15-D5A3-3F36-B6B1-86C89FD8B91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6204857" y="69944790"/>
+          <a:ext cx="1980573" cy="1088278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>172358</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>41327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2359704</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>1256519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C09A01-A799-1643-CDDA-6E4419A0CE42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6213929" y="72141041"/>
+          <a:ext cx="2187346" cy="1215192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>461819</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>46181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2087503</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>1233692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF798E5-EA49-F446-0F5D-F0753297A218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2978728" y="73867817"/>
+          <a:ext cx="1625684" cy="1187511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>404091</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>57465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2205182</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>1185007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6944F8B8-DAC1-E51B-81E2-0D22E441A948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2921000" y="75356920"/>
+          <a:ext cx="1801091" cy="1127542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>82634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1879166</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>1159758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E416B9BF-433F-0A4B-3501-F9D91CE9EF61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2620819" y="100077816"/>
+          <a:ext cx="1775256" cy="1077124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59810</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>200978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2267908</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>1454726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73514C8E-52C6-0698-59AB-63578093F602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2576719" y="102043433"/>
+          <a:ext cx="2208098" cy="1253748"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>136461</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>139786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2422165</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>1408546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F27908-4EDF-BC9F-6603-D9A3E8241515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2653370" y="103829513"/>
+          <a:ext cx="2285704" cy="1268760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>111315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2369265</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>1326749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37630649-CC49-BA1E-CB06-65A9CF0821D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2747818" y="105648315"/>
+          <a:ext cx="2138356" cy="1215434"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>184727</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>196273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2858214</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>1479039</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829A9DC2-494E-3853-FE45-5FBC483739BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2701636" y="116990091"/>
+          <a:ext cx="2673487" cy="1282766"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>230909</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3018702</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>1547163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9259B1B-4BDB-D2F6-970A-B271D586FE6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2747818" y="118791182"/>
+          <a:ext cx="2787793" cy="1397072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>187387</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>185376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3307633</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>1223818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100E56E3-A22E-4EC7-C7AE-59C501D53BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2704296" y="120673740"/>
+          <a:ext cx="3120246" cy="1038442"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2528456</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>921158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3312488</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1571010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C691A0-9B9D-0FAB-5C15-023185C37D41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13554365" y="119169703"/>
+          <a:ext cx="784032" cy="649852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>150091</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>161637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3392188</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>1339272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55216D04-A839-42BF-829A-7266256B8467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="123213092"/>
+          <a:ext cx="3242097" cy="1177635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>92567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2384207</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>948021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{726BF499-4981-247D-CBBF-32CF6412463A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2839357" y="126511996"/>
+          <a:ext cx="2057636" cy="855454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>268374</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>164323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3229812</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>1759857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77F620F-6053-8908-8124-AA03A50089F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781160" y="121603537"/>
+          <a:ext cx="2961438" cy="1595534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>163242</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>861786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3335897</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>1505018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06528B4-8D86-427C-0426-72C0ADFB9C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11175956" y="136833429"/>
+          <a:ext cx="3172655" cy="643232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>530297</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2630149</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>1333686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F032F2E8-473D-6BCF-1FC3-C012A4FF5A32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11543011" y="138375571"/>
+          <a:ext cx="2099852" cy="1143186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>1558344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2893785</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>2919232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C626CB29-36FE-BBFD-A790-4C67DA163FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676071" y="145267915"/>
+          <a:ext cx="2730500" cy="1360888"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242364</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292612</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1CFFE5-6F36-090B-2736-C166761FA11F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="242364" y="196850"/>
+          <a:ext cx="5536648" cy="3156242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472984</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B9FCD0-DFEE-9A03-D1C3-110E94E78870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="201930" y="3346450"/>
+          <a:ext cx="5757454" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>196849</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563492</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C515E8-3A84-142B-183A-57E768CAEAB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="196849" y="6495484"/>
+          <a:ext cx="5853043" cy="3093016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>185977</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>179359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93D40EF-285A-1575-C385-B9F7F8291EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="185977" y="9601200"/>
+          <a:ext cx="5833824" cy="3468659"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>159808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>105930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E079E983-B2E1-D623-CC03-4AC1F10D1DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="13050308"/>
+          <a:ext cx="5816600" cy="3260822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>206452</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>592098</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39D0309-723F-BC68-CCE6-CE68A3D50E2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="206452" y="16313150"/>
+          <a:ext cx="5872046" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182635</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513310</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0960F81F-8AB6-08AF-E17B-35872CA732AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182635" y="19685000"/>
+          <a:ext cx="5817075" cy="3225800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>131461</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>565151</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>37205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EDCD2D-2EFC-907D-C2AA-106DA955214A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="131461" y="22948900"/>
+          <a:ext cx="5920090" cy="3237605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>87191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>21718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D772C244-B955-6E67-2DD0-4C5C7F78CD0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="26236491"/>
+          <a:ext cx="5981700" cy="3249227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82551</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>6928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44451</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>82641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697B8725-3BD3-5997-024C-291FE3FE64DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82551" y="29470928"/>
+          <a:ext cx="6057900" cy="3206263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>549337</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD27ACE-EED6-FB1A-D6B8-2C9F22C807D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="32720756"/>
+          <a:ext cx="5934137" cy="3023394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>13622</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71972</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E319AD07-0B1E-9146-5BFF-E3AB10179155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="101600" y="35738722"/>
+          <a:ext cx="6066372" cy="3243928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,10 +5776,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V3"/>
+  <dimension ref="A2:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,9 +5841,1342 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="24"/>
+      <c r="B29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32" s="16"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" s="16"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="U34" s="5"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="290" x14ac:dyDescent="0.35">
+      <c r="A38" s="36"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="A41" s="43"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:22" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="33"/>
+      <c r="C42" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="27"/>
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:22" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="38"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A45" s="16"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A46" s="16"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="U47" s="5"/>
+    </row>
+    <row r="48" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="2"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A51" s="36"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="37"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A52" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="18"/>
+      <c r="B54" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A56" s="16"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="U57" s="5"/>
+    </row>
+    <row r="58" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="2"/>
+    </row>
+    <row r="59" spans="1:22" ht="290" x14ac:dyDescent="0.35">
+      <c r="A59" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:22" ht="319" x14ac:dyDescent="0.35">
+      <c r="A61" s="16"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="16"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A63" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="48"/>
+      <c r="C63" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A64" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A65" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="17"/>
+    </row>
+    <row r="66" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A67" s="45"/>
+      <c r="B67" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:22" ht="232" x14ac:dyDescent="0.35">
+      <c r="A69" s="16"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:22" ht="334" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C71" s="47"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="U72" s="5"/>
+    </row>
+    <row r="73" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="2"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="15"/>
+    </row>
+    <row r="75" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="17"/>
+    </row>
+    <row r="76" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A76" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A77" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="50"/>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A78" s="45"/>
+      <c r="B78" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="17"/>
+    </row>
+    <row r="79" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A80" s="16"/>
+      <c r="C80" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="16"/>
+      <c r="C82" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="17"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="17"/>
+    </row>
+    <row r="84" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A84" s="16"/>
+      <c r="C84" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="17"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="17"/>
+    </row>
+    <row r="86" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" s="17"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+      <c r="A88" s="45"/>
+      <c r="C88" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="45"/>
+      <c r="C89" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="26"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="17"/>
+    </row>
+    <row r="91" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+      <c r="A93" s="45"/>
+      <c r="C93" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="17"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="17"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="377.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+    </row>
+    <row r="99" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A100" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="50"/>
+      <c r="D100" s="17"/>
+    </row>
+    <row r="101" spans="1:22" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="45"/>
+      <c r="C101" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D101" s="17"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+    </row>
+    <row r="103" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="17"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A104" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="50"/>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="1:22" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="52"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="21"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A108" s="3"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="U108" s="5"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="2"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A110" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="33"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="57"/>
+    </row>
+    <row r="111" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D111" s="59"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A112" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="66"/>
+      <c r="D112" s="59"/>
+    </row>
+    <row r="113" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A113" s="64"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" s="62"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A114" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="33"/>
+      <c r="C114" s="56"/>
+      <c r="D114" s="57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115" s="59"/>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A116" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" s="66"/>
+      <c r="D116" s="59"/>
+    </row>
+    <row r="117" spans="1:22" ht="348" x14ac:dyDescent="0.35">
+      <c r="A117" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D117" s="62"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A118" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B118" s="33"/>
+      <c r="C118" s="56"/>
+      <c r="D118" s="57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C119" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D119" s="59"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A120" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="54"/>
+      <c r="D120" s="59"/>
+    </row>
+    <row r="121" spans="1:22" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="64"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" s="62"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A122" s="77"/>
+      <c r="B122" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+    </row>
+    <row r="123" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="18"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D123" s="21"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A124" s="80"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="81"/>
+      <c r="D124" s="80"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A125" s="80"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="81"/>
+      <c r="D125" s="80"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A126" s="3"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="U126" s="5"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="2"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A128" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B128" s="33"/>
+      <c r="C128" s="56"/>
+      <c r="D128" s="57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B129" s="32"/>
+      <c r="C129" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="D129" s="62"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" s="54"/>
+      <c r="D132" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="C133" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" s="54"/>
+      <c r="D134" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B135" s="1"/>
+      <c r="C135" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="C136" s="66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A137" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A139" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="66"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="2"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A141" s="2"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="66"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="2"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="2"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A145" s="77"/>
+      <c r="B145" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C145" s="14"/>
+      <c r="D145" s="15"/>
+    </row>
+    <row r="146" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="18"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="D146" s="21"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C147" s="54"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A148" s="3"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="U148" s="5"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="2"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A150" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B151" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151" s="54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A152" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="B152" s="33"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="57"/>
+    </row>
+    <row r="153" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="58"/>
+      <c r="C153" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D153" s="59"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A154" s="60"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D154" s="62"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A155" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155" s="33"/>
+      <c r="C155" s="56"/>
+      <c r="D155" s="57"/>
+    </row>
+    <row r="156" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A156" s="58"/>
+      <c r="B156" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C156" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D156" s="59"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A157" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B157" s="33"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="57"/>
+    </row>
+    <row r="158" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="58"/>
+      <c r="C158" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D158" s="59"/>
+    </row>
+    <row r="159" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A159" s="58"/>
+      <c r="B159" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C159" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="D159" s="71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B160" s="61"/>
+      <c r="C160" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160" s="62"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D161" s="59"/>
+    </row>
+    <row r="162" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B162" s="32"/>
+      <c r="C162" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D162" s="62"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B163" s="33"/>
+      <c r="C163" s="56"/>
+      <c r="D163" s="57"/>
+    </row>
+    <row r="164" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B164" s="32"/>
+      <c r="C164" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D164" s="70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="33"/>
+      <c r="C165" s="65"/>
+      <c r="D165" s="57"/>
+    </row>
+    <row r="166" spans="1:4" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A166" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="75"/>
+      <c r="C166" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D166" s="71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="77"/>
+      <c r="B167" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+    </row>
+    <row r="168" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="18"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="D168" s="21"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809769D-0BA4-4F09-AA61-047BAE75DB03}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2 четверть_6_Программист_Алгоритмы.xlsx
+++ b/2 четверть_6_Программист_Алгоритмы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADEBDA8-2B87-4599-9E49-8D6DE0A1AE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE94D6-AEB3-4B07-B00D-353E2FEE2D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="179">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -3332,17 +3332,28 @@
       <t xml:space="preserve"> смотри в https://github.com/AlexServGE/Algorithms_Programmer_2_Quarter  - Algorithms_Lesson_4/src</t>
     </r>
   </si>
+  <si>
+    <t>Добавить сортировку слиянием</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3496,7 +3507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3524,6 +3535,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3744,7 +3761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3755,237 +3772,231 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5778,8 +5789,8 @@
   </sheetPr>
   <dimension ref="A2:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5878,6 +5889,9 @@
       <c r="C26" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="F26" s="79" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="27" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A27" s="25" t="s">
@@ -6745,8 +6759,8 @@
       <c r="D121" s="62"/>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A122" s="77"/>
-      <c r="B122" s="78" t="s">
+      <c r="A122" s="75"/>
+      <c r="B122" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C122" s="14"/>
@@ -6755,22 +6769,16 @@
     <row r="123" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
-      <c r="C123" s="79" t="s">
+      <c r="C123" s="77" t="s">
         <v>177</v>
       </c>
       <c r="D123" s="21"/>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A124" s="80"/>
-      <c r="B124" s="75"/>
-      <c r="C124" s="81"/>
-      <c r="D124" s="80"/>
+      <c r="C124" s="78"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A125" s="80"/>
-      <c r="B125" s="75"/>
-      <c r="C125" s="81"/>
-      <c r="D125" s="80"/>
+      <c r="C125" s="78"/>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
@@ -6944,8 +6952,8 @@
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A145" s="77"/>
-      <c r="B145" s="78" t="s">
+      <c r="A145" s="75"/>
+      <c r="B145" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C145" s="14"/>
@@ -6954,7 +6962,7 @@
     <row r="146" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
-      <c r="C146" s="79" t="s">
+      <c r="C146" s="77" t="s">
         <v>173</v>
       </c>
       <c r="D146" s="21"/>
@@ -7134,8 +7142,7 @@
       <c r="A166" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="75"/>
-      <c r="C166" s="76" t="s">
+      <c r="C166" s="73" t="s">
         <v>167</v>
       </c>
       <c r="D166" s="71" t="s">
@@ -7143,8 +7150,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="77"/>
-      <c r="B167" s="78" t="s">
+      <c r="A167" s="75"/>
+      <c r="B167" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C167" s="14"/>
@@ -7153,13 +7160,13 @@
     <row r="168" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
-      <c r="C168" s="79" t="s">
+      <c r="C168" s="77" t="s">
         <v>172</v>
       </c>
       <c r="D168" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/2 четверть_6_Программист_Алгоритмы.xlsx
+++ b/2 четверть_6_Программист_Алгоритмы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE94D6-AEB3-4B07-B00D-353E2FEE2D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D844B275-D703-471D-AB79-BF9045E5B598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1791,9 +1791,6 @@
     <t>Урок 3 часть 1</t>
   </si>
   <si>
-    <t>Урок 3. Структуры данных. Связный список</t>
-  </si>
-  <si>
     <t>Связный список</t>
   </si>
   <si>
@@ -1898,20 +1895,6 @@
   <si>
     <t>Очередь работает по принципу FIFO
 First In First Out</t>
-  </si>
-  <si>
-    <t>public void addTail(int value) {
-        Node node = new Node();
-        node.value = value;
-        if (head == null) {
-            head = node;
-            tail = node;
-        } else {                    // head.prev -&gt; null,   head -&gt; 1,  head.next -&gt; 2,3 &lt;-tail.prev,   4 &lt;-tail,   null &lt;-tail.next
-            tail.next = node;       // head.prev -&gt; null,   head -&gt; 1,  head.next -&gt; 2,3 &lt;-tail.prev,   4 &lt;-tail,   6 &lt;-tail.next
-            node.previous = tail;   // head.prev -&gt; null,   head -&gt; 1,  head.next -&gt; 2,3 &lt;-tail.prev,   4 &lt;-tail,   tail&lt;-6 &lt;-tail.next
-            tail = node;            // head.prev -&gt; null,   head -&gt; 1,  head.next -&gt; 2,3,4 &lt;-tail.prev, 6 &lt;-tail,   null &lt;-tail.next
-        }
-    }</t>
   </si>
   <si>
     <t>public void addHead(int value) {
@@ -3334,6 +3317,23 @@
   </si>
   <si>
     <t>Добавить сортировку слиянием</t>
+  </si>
+  <si>
+    <t>Урок 3. Структуры данных. Связный список LinkedList</t>
+  </si>
+  <si>
+    <t>public void addTail(int value) {
+        Node node = new Node();
+        node.value = value;
+        if (head == null) {
+            head = node;
+            tail = node;
+        } else {                   
+            tail.next = node;    
+            node.previous = tail;  
+            tail = node;           
+        }
+    }</t>
   </si>
 </sst>
 </file>
@@ -3761,7 +3761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3997,6 +3997,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5789,8 +5792,8 @@
   </sheetPr>
   <dimension ref="A2:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5890,7 +5893,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
@@ -6369,7 +6372,7 @@
         <v>68</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="P73" s="1"/>
       <c r="U73" s="1"/>
@@ -6377,7 +6380,7 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="22"/>
@@ -6385,22 +6388,22 @@
     </row>
     <row r="75" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A75" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="17"/>
     </row>
     <row r="76" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C76" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="17"/>
     </row>
@@ -6414,16 +6417,16 @@
     <row r="78" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A78" s="45"/>
       <c r="B78" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D78" s="17"/>
     </row>
     <row r="79" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="17"/>
@@ -6431,20 +6434,20 @@
     <row r="80" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A80" s="16"/>
       <c r="C80" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D80" s="17"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D81" s="17"/>
     </row>
     <row r="82" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="16"/>
       <c r="C82" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="17"/>
     </row>
@@ -6458,19 +6461,19 @@
     <row r="84" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A84" s="16"/>
       <c r="C84" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D84" s="17"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D85" s="17"/>
     </row>
     <row r="86" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A86" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D86" s="17"/>
     </row>
@@ -6480,31 +6483,31 @@
       </c>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A88" s="45"/>
-      <c r="C88" s="50" t="s">
-        <v>86</v>
+      <c r="C88" s="80" t="s">
+        <v>178</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A89" s="45"/>
       <c r="C89" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D89" s="26"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D90" s="17"/>
     </row>
     <row r="91" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A91" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D91" s="17"/>
     </row>
@@ -6517,19 +6520,19 @@
     <row r="93" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A93" s="45"/>
       <c r="C93" s="50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D93" s="17"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D94" s="17"/>
     </row>
     <row r="95" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A95" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D95" s="17"/>
     </row>
@@ -6538,32 +6541,32 @@
         <v>21</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="377.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="72" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C97" s="73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="14"/>
@@ -6571,10 +6574,10 @@
     </row>
     <row r="99" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A99" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D99" s="17"/>
     </row>
@@ -6588,13 +6591,13 @@
     <row r="101" spans="1:22" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="45"/>
       <c r="C101" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D101" s="17"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B102" s="13"/>
       <c r="C102" s="14"/>
@@ -6602,10 +6605,10 @@
     </row>
     <row r="103" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A103" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C103" s="50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D103" s="17"/>
     </row>
@@ -6620,7 +6623,7 @@
       <c r="A105" s="52"/>
       <c r="B105" s="19"/>
       <c r="C105" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D105" s="21"/>
     </row>
@@ -6645,10 +6648,10 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P109" s="1"/>
       <c r="U109" s="1"/>
@@ -6656,7 +6659,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B110" s="33"/>
       <c r="C110" s="56"/>
@@ -6664,10 +6667,10 @@
     </row>
     <row r="111" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A111" s="67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C111" s="66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D111" s="59"/>
     </row>
@@ -6682,26 +6685,26 @@
       <c r="A113" s="64"/>
       <c r="B113" s="32"/>
       <c r="C113" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D113" s="62"/>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B114" s="33"/>
       <c r="C114" s="56"/>
       <c r="D114" s="57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A115" s="67" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C115" s="66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D115" s="59"/>
     </row>
@@ -6714,32 +6717,32 @@
     </row>
     <row r="117" spans="1:22" ht="348" x14ac:dyDescent="0.35">
       <c r="A117" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="B117" s="69" t="s">
-        <v>138</v>
-      </c>
       <c r="C117" s="69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D117" s="62"/>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B118" s="33"/>
       <c r="C118" s="56"/>
       <c r="D118" s="57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A119" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" s="66" t="s">
         <v>137</v>
-      </c>
-      <c r="C119" s="66" t="s">
-        <v>139</v>
       </c>
       <c r="D119" s="59"/>
     </row>
@@ -6754,7 +6757,7 @@
       <c r="A121" s="64"/>
       <c r="B121" s="32"/>
       <c r="C121" s="69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D121" s="62"/>
     </row>
@@ -6770,7 +6773,7 @@
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D123" s="21"/>
     </row>
@@ -6801,10 +6804,10 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P127" s="1"/>
       <c r="U127" s="1"/>
@@ -6812,103 +6815,103 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A128" s="55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B128" s="33"/>
       <c r="C128" s="56"/>
       <c r="D128" s="57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A129" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B129" s="32"/>
       <c r="C129" s="69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D129" s="62"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D131" s="66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C132" s="54"/>
       <c r="D132" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="C133" s="54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C134" s="54"/>
       <c r="D134" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="B135" s="1"/>
       <c r="C135" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="C136" s="66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C137" s="66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="66"/>
@@ -6917,22 +6920,22 @@
       <c r="A140" s="2"/>
       <c r="B140" s="1"/>
       <c r="C140" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="1"/>
       <c r="C141" s="66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="66"/>
@@ -6941,14 +6944,14 @@
       <c r="A143" s="2"/>
       <c r="B143" s="1"/>
       <c r="C143" s="66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2"/>
       <c r="B144" s="1"/>
       <c r="C144" s="66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.35">
@@ -6963,7 +6966,7 @@
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
       <c r="C146" s="77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D146" s="21"/>
     </row>
@@ -6991,13 +6994,13 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P149" s="1"/>
       <c r="U149" s="1"/>
@@ -7005,20 +7008,20 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="B151" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C151" s="54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A152" s="55" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B152" s="33"/>
       <c r="C152" s="56"/>
@@ -7027,7 +7030,7 @@
     <row r="153" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A153" s="58"/>
       <c r="C153" s="54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D153" s="59"/>
     </row>
@@ -7035,13 +7038,13 @@
       <c r="A154" s="60"/>
       <c r="B154" s="32"/>
       <c r="C154" s="61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D154" s="62"/>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A155" s="63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B155" s="33"/>
       <c r="C155" s="56"/>
@@ -7050,16 +7053,16 @@
     <row r="156" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A156" s="58"/>
       <c r="B156" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C156" s="54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D156" s="59"/>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A157" s="55" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B157" s="33"/>
       <c r="C157" s="56"/>
@@ -7068,51 +7071,51 @@
     <row r="158" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="58"/>
       <c r="C158" s="54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D158" s="59"/>
     </row>
     <row r="159" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A159" s="58"/>
       <c r="B159" s="54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C159" s="54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D159" s="71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A160" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B160" s="61"/>
       <c r="C160" s="70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D160" s="62"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D161" s="59"/>
     </row>
     <row r="162" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A162" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B162" s="32"/>
       <c r="C162" s="61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D162" s="62"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B163" s="33"/>
       <c r="C163" s="56"/>
@@ -7120,19 +7123,19 @@
     </row>
     <row r="164" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A164" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B164" s="32"/>
       <c r="C164" s="61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D164" s="70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B165" s="33"/>
       <c r="C165" s="65"/>
@@ -7140,13 +7143,13 @@
     </row>
     <row r="166" spans="1:4" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C166" s="73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D166" s="71" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -7161,7 +7164,7 @@
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
       <c r="C168" s="77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D168" s="21"/>
     </row>
